--- a/data/Paramount_data.xlsx
+++ b/data/Paramount_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\Data Analysis\Wills Films\Streaming Analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\Data Analysis\Wills Films\Streaming Analysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBD61884-AF82-4FCA-BA94-B4CA16348DE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD93235F-F249-49DF-B5CB-A1E3AD28F89E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{D318A17E-738C-41C0-BC94-6429EB013DE0}"/>
   </bookViews>
@@ -18,7 +18,6 @@
     <sheet name="data source" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>Year</t>
   </si>
@@ -52,12 +51,6 @@
   </si>
   <si>
     <t>yoy_percentage_growth</t>
-  </si>
-  <si>
-    <t>Data were collected from businessofapps.com</t>
-  </si>
-  <si>
-    <t>https://www.businessofapps.com/data/amazon-prime-video-statistics/</t>
   </si>
   <si>
     <t>Notes</t>
@@ -66,6 +59,9 @@
     <t>1. Subscription figures are taken from Q4 of the year.
 2. Figures are rounded to 1 decimal place.
 3. Revenue figures are not currently available.</t>
+  </si>
+  <si>
+    <t>Data were collected from Wikipedia and associated links</t>
   </si>
 </sst>
 </file>
@@ -456,10 +452,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BFD050C-089D-409C-AE21-60C154859EC8}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -487,10 +483,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B2">
-        <v>32.799999999999997</v>
+        <v>8</v>
       </c>
       <c r="C2">
         <f>ROUND(B2/$B$2*100,1)</f>
@@ -505,60 +501,80 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B3">
-        <v>55.9</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C5" si="0">ROUND(B3/$B$2*100,1)</f>
-        <v>170.4</v>
+        <f t="shared" ref="C3:C6" si="0">ROUND(B3/$B$2*100,1)</f>
+        <v>410</v>
       </c>
       <c r="D3">
         <f>B3-B2</f>
-        <v>23.1</v>
+        <v>24.799999999999997</v>
       </c>
       <c r="E3">
         <f>ROUND(((B3-B2)/B2)*100,1)</f>
-        <v>70.400000000000006</v>
+        <v>310</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="B4">
-        <v>67.5</v>
+        <v>55.9</v>
       </c>
       <c r="C4">
         <f t="shared" si="0"/>
-        <v>205.8</v>
+        <v>698.8</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D5" si="1">B4-B3</f>
-        <v>11.600000000000001</v>
+        <f>B4-B3</f>
+        <v>23.1</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E5" si="2">ROUND(((B4-B3)/B3)*100,1)</f>
-        <v>20.8</v>
+        <f>ROUND(((B4-B3)/B3)*100,1)</f>
+        <v>70.400000000000006</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B5">
-        <v>77.5</v>
+        <v>67.5</v>
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
-        <v>236.3</v>
+        <v>843.8</v>
       </c>
       <c r="D5">
+        <f t="shared" ref="D5:D6" si="1">B5-B4</f>
+        <v>11.600000000000001</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ref="E5:E6" si="2">ROUND(((B5-B4)/B4)*100,1)</f>
+        <v>20.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2024</v>
+      </c>
+      <c r="B6">
+        <v>77.5</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>968.8</v>
+      </c>
+      <c r="D6">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="E5">
+      <c r="E6">
         <f t="shared" si="2"/>
         <v>14.8</v>
       </c>
@@ -573,7 +589,7 @@
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D10:D11"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -586,22 +602,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="45" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
